--- a/Trabajo Individual/Validación2.xlsx
+++ b/Trabajo Individual/Validación2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,471 +360,892 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Cantón</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>NMRSE test</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>NIS test</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>NMRSE Total</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>NIS total</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>0.1435712487944593</v>
-      </c>
-      <c r="B2">
-        <v>18.50874839512488</v>
-      </c>
-      <c r="C2">
-        <v>0.009866266996637198</v>
-      </c>
-      <c r="D2">
-        <v>1.084791926933664</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Alajuela</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0.145796722611948</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>15.3450905944235</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.028493042944927</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2.94678556836786</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>0.2379589945669019</v>
-      </c>
-      <c r="B3">
-        <v>26.2523638594499</v>
-      </c>
-      <c r="C3">
-        <v>0.01335034069959229</v>
-      </c>
-      <c r="D3">
-        <v>2.704222171488826</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Atenas</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.857838445256781</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>95.6231008935629</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.0391680062938206</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>4.72940323696795</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <v>0.8153209238689849</v>
-      </c>
-      <c r="B4">
-        <v>110.8429577898183</v>
-      </c>
-      <c r="C4">
-        <v>0.08927537655532003</v>
-      </c>
-      <c r="D4">
-        <v>13.59075887131056</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1.14534387649019</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>128.797501915825</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.104234256882314</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>16.0954585333769</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
-        <v>0.3583999519545957</v>
-      </c>
-      <c r="B5">
-        <v>30.42381604825022</v>
-      </c>
-      <c r="C5">
-        <v>0.04981551929090492</v>
-      </c>
-      <c r="D5">
-        <v>5.809316055087772</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Alajuelita</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.411578125227438</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>44.1852447417168</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.0628723302535379</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>7.85181021954723</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
-        <v>0.2053849863765988</v>
-      </c>
-      <c r="B6">
-        <v>20.42200781054367</v>
-      </c>
-      <c r="C6">
-        <v>0.03094233137669712</v>
-      </c>
-      <c r="D6">
-        <v>3.992786424989751</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Desamparados</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.20882411922752</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>21.3284167592543</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.034336547206739</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>4.77854486417942</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
-        <v>0.1098683239899073</v>
-      </c>
-      <c r="B7">
-        <v>11.56440845466193</v>
-      </c>
-      <c r="C7">
-        <v>0.04500586066978073</v>
-      </c>
-      <c r="D7">
-        <v>4.339413826294978</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>San Jose</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0.301434491936294</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>33.3029114839896</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.0366905259540687</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>4.02645389569215</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
-        <v>0.4820987719497976</v>
-      </c>
-      <c r="B8">
-        <v>97.91766450523591</v>
-      </c>
-      <c r="C8">
-        <v>0.03251569722154132</v>
-      </c>
-      <c r="D8">
-        <v>7.807302009535693</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Cañas</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.244006352612488</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>78.7507261077855</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.0187866701515376</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>5.67746768763757</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9">
-        <v>1.442302569642286</v>
-      </c>
-      <c r="B9">
-        <v>238.9538509537882</v>
-      </c>
-      <c r="C9">
-        <v>0.06449855726267199</v>
-      </c>
-      <c r="D9">
-        <v>18.87933806242163</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>La Cruz</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.418296975791707</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>114.364316964126</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.049962828359923</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>16.2287270062194</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10">
-        <v>0.6294008605858678</v>
-      </c>
-      <c r="B10">
-        <v>75.27449689777583</v>
-      </c>
-      <c r="C10">
-        <v>0.03380487220970196</v>
-      </c>
-      <c r="D10">
-        <v>5.760670298361883</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Liberia</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.243522248037882</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>56.1060132965173</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.0210448025900155</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4.02375602120724</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11">
-        <v>0.2460607385969276</v>
-      </c>
-      <c r="B11">
-        <v>48.05884818482658</v>
-      </c>
-      <c r="C11">
-        <v>0.0463850370115302</v>
-      </c>
-      <c r="D11">
-        <v>11.54507619930269</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Carrillo</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0.510266300642532</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>78.1152148761258</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.0368998020984985</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>8.29322995152781</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12">
-        <v>0.7271840864891533</v>
-      </c>
-      <c r="B12">
-        <v>93.42313660050698</v>
-      </c>
-      <c r="C12">
-        <v>0.0253232856629308</v>
-      </c>
-      <c r="D12">
-        <v>2.822901687018189</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Nicoya</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0.388311979671575</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>50.0274739315038</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.0218393552316755</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2.71714655300935</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13">
-        <v>1.852252734173447</v>
-      </c>
-      <c r="B13">
-        <v>274.1397949644754</v>
-      </c>
-      <c r="C13">
-        <v>0.05301981984684285</v>
-      </c>
-      <c r="D13">
-        <v>9.402225255578927</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SantaCruz</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1.73322694119534</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>248.44969462455</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.0402551708082305</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>7.39719299316004</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14">
-        <v>2.610241853322891</v>
-      </c>
-      <c r="B14">
-        <v>287.441174135012</v>
-      </c>
-      <c r="C14">
-        <v>0.06645740494964046</v>
-      </c>
-      <c r="D14">
-        <v>15.5783160463824</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Esparza</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0.498932065964905</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>86.1769428844274</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.036085754797352</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>9.48061480524376</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15">
-        <v>1.877515199988989</v>
-      </c>
-      <c r="B15">
-        <v>163.5410201474788</v>
-      </c>
-      <c r="C15">
-        <v>0.0618242083160838</v>
-      </c>
-      <c r="D15">
-        <v>9.791727270013523</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Montes de Oro</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0.402660207189349</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>52.6405791613165</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.0335851640157836</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>6.07955768092283</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16">
-        <v>0.3576550526393895</v>
-      </c>
-      <c r="B16">
-        <v>39.01272636560347</v>
-      </c>
-      <c r="C16">
-        <v>0.04713371291336031</v>
-      </c>
-      <c r="D16">
-        <v>5.743482703716961</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Puntarenas</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0.0457365216678812</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>6.49627678846859</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.0275598984881602</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3.65978799036253</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17">
-        <v>0.2844712457600882</v>
-      </c>
-      <c r="B17">
-        <v>36.14184255007083</v>
-      </c>
-      <c r="C17">
-        <v>0.0358010205056197</v>
-      </c>
-      <c r="D17">
-        <v>5.677347249000449</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Limon</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0.32359507935962</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>51.6987507688177</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.0278340867499122</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>4.62405598865513</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18">
-        <v>0.3281223791964289</v>
-      </c>
-      <c r="B18">
-        <v>46.78051436703468</v>
-      </c>
-      <c r="C18">
-        <v>0.04486958185099369</v>
-      </c>
-      <c r="D18">
-        <v>4.808246868927518</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Matina</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0.3081381718026</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>47.7196046755715</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.0419690849358861</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>4.35592440547325</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19">
-        <v>1.344257184353443</v>
-      </c>
-      <c r="B19">
-        <v>169.056820151609</v>
-      </c>
-      <c r="C19">
-        <v>0.04256676419434161</v>
-      </c>
-      <c r="D19">
-        <v>6.927740130942723</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Perez Zeledón</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0.683533599309135</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>102.167352908208</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.0360473646077467</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>5.51981604572001</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20">
-        <v>0.1372075197569253</v>
-      </c>
-      <c r="B20">
-        <v>13.81689390817315</v>
-      </c>
-      <c r="C20">
-        <v>0.05450746841467803</v>
-      </c>
-      <c r="D20">
-        <v>10.32954259436514</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Talamanca</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0.110980356389432</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>13.5807392758552</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.0445061108127689</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>8.32168690678887</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21">
-        <v>0.2872487002583686</v>
-      </c>
-      <c r="B21">
-        <v>22.75088827296566</v>
-      </c>
-      <c r="C21">
-        <v>0.03536173866064416</v>
-      </c>
-      <c r="D21">
-        <v>3.496591884851412</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Guacimo</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0.0933960450744436</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>8.92434766417063</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.0272311716745365</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3.03964721565125</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22">
-        <v>0.5194502031036831</v>
-      </c>
-      <c r="B22">
-        <v>43.46477728424613</v>
-      </c>
-      <c r="C22">
-        <v>0.03569403591156783</v>
-      </c>
-      <c r="D22">
-        <v>3.998071743957429</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Pococí</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0.216468378203382</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>18.1837074186152</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.026361810119357</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>3.33872969084111</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23">
-        <v>0.1831906137512916</v>
-      </c>
-      <c r="B23">
-        <v>16.67389160462747</v>
-      </c>
-      <c r="C23">
-        <v>0.04193961614397257</v>
-      </c>
-      <c r="D23">
-        <v>4.119532172126711</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Siquirres</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0.158101825428369</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>15.3952477223293</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.0339781495223806</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>3.66968931996199</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24">
-        <v>0.1666521621327299</v>
-      </c>
-      <c r="B24">
-        <v>13.11030905707135</v>
-      </c>
-      <c r="C24">
-        <v>0.04832153911129639</v>
-      </c>
-      <c r="D24">
-        <v>6.601292432875094</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Sarapiquí</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0.289604116553274</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>25.8378667121286</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.0458994435488075</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>6.10744618788693</t>
+        </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25">
-        <v>0.8557062999994072</v>
-      </c>
-      <c r="B25">
-        <v>67.5187615478965</v>
-      </c>
-      <c r="C25">
-        <v>0.1336450537645356</v>
-      </c>
-      <c r="D25">
-        <v>22.23420078495979</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Turrialba</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0.690972224449591</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>54.6471910147364</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.113724234346139</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>18.6718284391121</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26">
-        <v>2.750634824991747</v>
-      </c>
-      <c r="B26">
-        <v>386.3241022213235</v>
-      </c>
-      <c r="C26">
-        <v>0.03137490318897789</v>
-      </c>
-      <c r="D26">
-        <v>4.502368009559807</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Garabito</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0.518638336095042</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>77.3635952951556</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.0187026672356068</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2.87078945760218</t>
+        </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27">
-        <v>4.752385120666101</v>
-      </c>
-      <c r="B27">
-        <v>375.7337160303849</v>
-      </c>
-      <c r="C27">
-        <v>0.04177541599867535</v>
-      </c>
-      <c r="D27">
-        <v>6.961373054240288</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Orotina</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1.36301632541217</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>179.393827808705</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.0253768160736474</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>4.90264046005839</t>
+        </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28">
-        <v>2.240551333214959</v>
-      </c>
-      <c r="B28">
-        <v>358.0290818620243</v>
-      </c>
-      <c r="C28">
-        <v>0.05509682372477627</v>
-      </c>
-      <c r="D28">
-        <v>12.49678474821625</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Quepos</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0.586341697422924</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>133.846551970735</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.0333288398100297</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>8.46002178654383</t>
+        </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29">
-        <v>3.888601728741346</v>
-      </c>
-      <c r="B29">
-        <v>349.6628166968238</v>
-      </c>
-      <c r="C29">
-        <v>0.03461169180372985</v>
-      </c>
-      <c r="D29">
-        <v>4.856052976249104</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Corredores</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>3.70746923111762</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>349.965194297777</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.0283911834041515</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>3.95163728010563</t>
+        </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30">
-        <v>1.22276107775125</v>
-      </c>
-      <c r="B30">
-        <v>132.2244872575358</v>
-      </c>
-      <c r="C30">
-        <v>0.0561190392631461</v>
-      </c>
-      <c r="D30">
-        <v>8.789201631950014</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Golfito</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1.40735258705484</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>119.974574132828</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.0429308548965769</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>6.52145620239143</t>
+        </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31">
-        <v>5.35512377396855</v>
-      </c>
-      <c r="B31">
-        <v>497.1918095807944</v>
-      </c>
-      <c r="C31">
-        <v>0.03621730915637712</v>
-      </c>
-      <c r="D31">
-        <v>8.173136023732871</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Osa</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2.52237005104239</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>215.965139021291</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.0448279350473799</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>8.14757487509282</t>
+        </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32">
-        <v>1.697985620013604</v>
-      </c>
-      <c r="B32">
-        <v>315.7064430675791</v>
-      </c>
-      <c r="C32">
-        <v>0.03778767439569861</v>
-      </c>
-      <c r="D32">
-        <v>14.04815274167986</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Parrita</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1.17591895572855</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>221.955143511806</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.0392292731923023</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>13.2418755094909</t>
+        </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33">
-        <v>0.5880802888531025</v>
-      </c>
-      <c r="B33">
-        <v>75.48187514118629</v>
-      </c>
-      <c r="C33">
-        <v>0.07973929289483255</v>
-      </c>
-      <c r="D33">
-        <v>12.60803912218776</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Upala</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0.33734840026131</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>73.0446405256427</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.0672163743497073</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>10.8558581326662</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Trabajo Individual/Validación2.xlsx
+++ b/Trabajo Individual/Validación2.xlsx
@@ -392,22 +392,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.145796722611948</t>
+          <t>0.200865281345033</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15.3450905944235</t>
+          <t>20.7566453080384</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.028493042944927</t>
+          <t>0.510743547825321</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.94678556836786</t>
+          <t>37.4695434886768</t>
         </is>
       </c>
     </row>
@@ -419,22 +419,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.857838445256781</t>
+          <t>0.821100096096226</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>95.6231008935629</t>
+          <t>75.9212198577001</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.0391680062938206</t>
+          <t>1.444478522429</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.72940323696795</t>
+          <t>96.1850973628368</t>
         </is>
       </c>
     </row>
@@ -446,22 +446,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.14534387649019</t>
+          <t>0.735407763898423</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>128.797501915825</t>
+          <t>76.8660416578996</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.104234256882314</t>
+          <t>0.31974362878616</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>16.0954585333769</t>
+          <t>32.5887554648063</t>
         </is>
       </c>
     </row>
@@ -473,22 +473,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.411578125227438</t>
+          <t>0.301339613388611</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>44.1852447417168</t>
+          <t>27.5557066060435</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.0628723302535379</t>
+          <t>0.509321405584529</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.85181021954723</t>
+          <t>33.3536735167505</t>
         </is>
       </c>
     </row>
@@ -500,22 +500,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.20882411922752</t>
+          <t>0.301551519132227</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21.3284167592543</t>
+          <t>28.3605231200838</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.034336547206739</t>
+          <t>0.401820588580381</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.77854486417942</t>
+          <t>30.2460190115992</t>
         </is>
       </c>
     </row>
@@ -527,22 +527,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.301434491936294</t>
+          <t>0.295380084668276</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>33.3029114839896</t>
+          <t>27.6624212762498</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.0366905259540687</t>
+          <t>0.343228217163341</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.02645389569215</t>
+          <t>20.5294226795064</t>
         </is>
       </c>
     </row>
@@ -554,22 +554,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.244006352612488</t>
+          <t>1.39706834843784</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>78.7507261077855</t>
+          <t>238.954952795167</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.0187866701515376</t>
+          <t>0.347743046084139</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.67746768763757</t>
+          <t>30.1364772468208</t>
         </is>
       </c>
     </row>
@@ -581,22 +581,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.418296975791707</t>
+          <t>0.889241390778354</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>114.364316964126</t>
+          <t>169.834210926457</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.049962828359923</t>
+          <t>0.325988117001598</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>16.2287270062194</t>
+          <t>32.4221561822137</t>
         </is>
       </c>
     </row>
@@ -608,22 +608,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.243522248037882</t>
+          <t>0.936947365370373</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>56.1060132965173</t>
+          <t>175.636250210839</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.0210448025900155</t>
+          <t>0.369045740286278</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.02375602120724</t>
+          <t>27.6602382681644</t>
         </is>
       </c>
     </row>
@@ -635,22 +635,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.510266300642532</t>
+          <t>1.39701101023527</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>78.1152148761258</t>
+          <t>164.424021516988</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.0368998020984985</t>
+          <t>0.274491410437561</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8.29322995152781</t>
+          <t>25.4699980993479</t>
         </is>
       </c>
     </row>
@@ -662,22 +662,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.388311979671575</t>
+          <t>2.1040852801153</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>50.0274739315038</t>
+          <t>187.934118432281</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.0218393552316755</t>
+          <t>0.511931348670388</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.71714655300935</t>
+          <t>27.7508168002739</t>
         </is>
       </c>
     </row>
@@ -689,22 +689,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1.73322694119534</t>
+          <t>7.51465611595891</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>248.44969462455</t>
+          <t>772.254825624029</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.0402551708082305</t>
+          <t>0.413600653254641</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7.39719299316004</t>
+          <t>31.7766600921095</t>
         </is>
       </c>
     </row>
@@ -716,22 +716,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.498932065964905</t>
+          <t>3.08554019078914</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>86.1769428844274</t>
+          <t>292.889373032779</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.036085754797352</t>
+          <t>0.306101365912107</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>9.48061480524376</t>
+          <t>29.6792301855004</t>
         </is>
       </c>
     </row>
@@ -743,22 +743,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.402660207189349</t>
+          <t>2.48326843826566</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>52.6405791613165</t>
+          <t>159.208952997167</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.0335851640157836</t>
+          <t>0.678801570756695</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6.07955768092283</t>
+          <t>54.4194012737246</t>
         </is>
       </c>
     </row>
@@ -770,22 +770,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.0457365216678812</t>
+          <t>0.352161753973939</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>6.49627678846859</t>
+          <t>31.5180654729073</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.0275598984881602</t>
+          <t>0.172899160022736</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.65978799036253</t>
+          <t>11.548522158738</t>
         </is>
       </c>
     </row>
@@ -797,22 +797,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.32359507935962</t>
+          <t>0.345303176597749</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>51.6987507688177</t>
+          <t>41.0824238867909</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.0278340867499122</t>
+          <t>0.381928612935422</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.62405598865513</t>
+          <t>20.9295487369262</t>
         </is>
       </c>
     </row>
@@ -824,22 +824,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.3081381718026</t>
+          <t>0.461234504443887</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>47.7196046755715</t>
+          <t>44.1706480274444</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.0419690849358861</t>
+          <t>0.399703136450724</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.35592440547325</t>
+          <t>19.6467900222318</t>
         </is>
       </c>
     </row>
@@ -851,22 +851,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.683533599309135</t>
+          <t>2.20694785273067</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>102.167352908208</t>
+          <t>184.997048869743</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.0360473646077467</t>
+          <t>1.52920492885927</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.51981604572001</t>
+          <t>114.188685059063</t>
         </is>
       </c>
     </row>
@@ -878,22 +878,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0.110980356389432</t>
+          <t>0.525255707181421</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>13.5807392758552</t>
+          <t>55.5343645981362</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.0445061108127689</t>
+          <t>0.575879943346302</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>8.32168690678887</t>
+          <t>47.5954884219785</t>
         </is>
       </c>
     </row>
@@ -905,22 +905,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.0933960450744436</t>
+          <t>0.188891594104978</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>8.92434766417063</t>
+          <t>11.1033166291904</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.0272311716745365</t>
+          <t>0.863065944561933</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.03964721565125</t>
+          <t>50.1462983668144</t>
         </is>
       </c>
     </row>
@@ -932,22 +932,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.216468378203382</t>
+          <t>0.260322813872725</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>18.1837074186152</t>
+          <t>24.098095965976</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.026361810119357</t>
+          <t>0.514001163883783</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.33872969084111</t>
+          <t>32.6759375718399</t>
         </is>
       </c>
     </row>
@@ -959,22 +959,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.158101825428369</t>
+          <t>0.479469796802361</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15.3952477223293</t>
+          <t>32.8320856943209</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.0339781495223806</t>
+          <t>0.47899999810598</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.66968931996199</t>
+          <t>26.8150766525007</t>
         </is>
       </c>
     </row>
@@ -986,22 +986,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0.289604116553274</t>
+          <t>0.225147318218938</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>25.8378667121286</t>
+          <t>17.8868142347007</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.0458994435488075</t>
+          <t>0.966675497250222</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6.10744618788693</t>
+          <t>63.4423422640516</t>
         </is>
       </c>
     </row>
@@ -1013,22 +1013,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0.690972224449591</t>
+          <t>0.667042164823711</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>54.6471910147364</t>
+          <t>72.4540281990787</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.113724234346139</t>
+          <t>0.343333889752165</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>18.6718284391121</t>
+          <t>46.0522223251039</t>
         </is>
       </c>
     </row>
@@ -1040,22 +1040,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0.518638336095042</t>
+          <t>1.75789628869714</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>77.3635952951556</t>
+          <t>330.522362153447</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.0187026672356068</t>
+          <t>0.283059874241362</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2.87078945760218</t>
+          <t>22.5437082814842</t>
         </is>
       </c>
     </row>
@@ -1067,22 +1067,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1.36301632541217</t>
+          <t>0.781312170808058</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>179.393827808705</t>
+          <t>164.349410553203</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.0253768160736474</t>
+          <t>0.216871277664173</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.90264046005839</t>
+          <t>19.5190564547715</t>
         </is>
       </c>
     </row>
@@ -1094,22 +1094,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0.586341697422924</t>
+          <t>1.17731492016627</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>133.846551970735</t>
+          <t>257.205197417029</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.0333288398100297</t>
+          <t>0.27544004097134</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>8.46002178654383</t>
+          <t>28.8716172583411</t>
         </is>
       </c>
     </row>
@@ -1121,22 +1121,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3.70746923111762</t>
+          <t>1.03088245632844</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>349.965194297777</t>
+          <t>104.765297916087</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.0283911834041515</t>
+          <t>0.497960975131246</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3.95163728010563</t>
+          <t>31.1082508087831</t>
         </is>
       </c>
     </row>
@@ -1148,22 +1148,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1.40735258705484</t>
+          <t>1.24226400144675</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>119.974574132828</t>
+          <t>115.865789374029</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.0429308548965769</t>
+          <t>0.620138614125116</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>6.52145620239143</t>
+          <t>49.4494553179617</t>
         </is>
       </c>
     </row>
@@ -1175,22 +1175,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2.52237005104239</t>
+          <t>2.88750123753937</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>215.965139021291</t>
+          <t>321.535015849689</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.0448279350473799</t>
+          <t>1.27058529534253</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>8.14757487509282</t>
+          <t>84.2221015896632</t>
         </is>
       </c>
     </row>
@@ -1202,22 +1202,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1.17591895572855</t>
+          <t>5.38266407717549</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>221.955143511806</t>
+          <t>514.464119637383</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.0392292731923023</t>
+          <t>0.499564698939072</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>13.2418755094909</t>
+          <t>43.3810550430288</t>
         </is>
       </c>
     </row>
@@ -1229,22 +1229,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0.33734840026131</t>
+          <t>1.54178262242222</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>73.0446405256427</t>
+          <t>186.958238560683</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.0672163743497073</t>
+          <t>0.531429602437607</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10.8558581326662</t>
+          <t>42.096465366115</t>
         </is>
       </c>
     </row>
